--- a/fuentes/contenidos/grado08/guion08/Copia de CS_08_08_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Copia de CS_08_08_CO_Escaleta.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="224">
   <si>
     <t>Asignatura</t>
   </si>
@@ -672,6 +672,30 @@
   </si>
   <si>
     <t>Actividad que guía el trabajo colaborativo de investigación sobre el rol de las mujeres en la sociedad colombiana de la segunda mitad del siglo XIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignado a Miguel Gil. </t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos.</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil. Editado por Nathalia Castañeda</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos. Editado por Nathalia Castañeda</t>
+  </si>
+  <si>
+    <t>Asignado a Miguel Gil.</t>
+  </si>
+  <si>
+    <t>Anognado rbanismo Miguel Gil.</t>
+  </si>
+  <si>
+    <t>Asignado omAnomHoyos.</t>
+  </si>
+  <si>
+    <t>Anognado in Miguel Gil.</t>
   </si>
 </sst>
 </file>
@@ -887,7 +911,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -931,7 +955,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -973,34 +996,43 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,31 +1074,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,9 +1406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,7 +1426,7 @@
     <col min="11" max="11" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="12.109375" customWidth="1"/>
     <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -1406,26 +1435,26 @@
     <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="47" t="s">
@@ -1434,93 +1463,93 @@
       <c r="I1" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="64" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="50"/>
+    <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="48"/>
-      <c r="G2" s="54"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="27" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="42"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65"/>
     </row>
     <row r="3" spans="1:21" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>123</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="32">
         <v>1</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="38" t="s">
         <v>180</v>
       </c>
       <c r="K3" s="21" t="s">
@@ -1533,51 +1562,53 @@
         <v>53</v>
       </c>
       <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="38" t="s">
+      <c r="O3" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="33">
         <v>6</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="23" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <v>2</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="44" t="s">
         <v>198</v>
       </c>
       <c r="K4" s="21" t="s">
@@ -1590,53 +1621,55 @@
       <c r="N4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="38" t="s">
+      <c r="O4" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="33">
         <v>6</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="45" t="s">
         <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1650,16 +1683,16 @@
         <v>121</v>
       </c>
       <c r="O5" s="9"/>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="34">
         <v>6</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T5" s="12" t="s">
@@ -1670,13 +1703,13 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1684,16 +1717,16 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="45" t="s">
         <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1706,17 +1739,19 @@
         <v>117</v>
       </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="32" t="s">
+      <c r="O6" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="34">
         <v>6</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="23" t="s">
         <v>140</v>
       </c>
       <c r="T6" s="12" t="s">
@@ -1727,13 +1762,13 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -1743,16 +1778,16 @@
         <v>201</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="45" t="s">
         <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1765,17 +1800,19 @@
       <c r="N7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="32" t="s">
+      <c r="O7" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="34">
         <v>6</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T7" s="12" t="s">
@@ -1786,13 +1823,13 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1804,16 +1841,16 @@
       <c r="F8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="45" t="s">
         <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1826,17 +1863,19 @@
       <c r="N8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="32" t="s">
+      <c r="O8" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="34">
         <v>6</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T8" s="12" t="s">
@@ -1847,13 +1886,13 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1865,16 +1904,16 @@
       <c r="F9" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="45" t="s">
         <v>183</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1887,17 +1926,19 @@
       <c r="N9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="32" t="s">
+      <c r="O9" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="P9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="34">
         <v>6</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T9" s="12" t="s">
@@ -1908,13 +1949,13 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1924,10 +1965,10 @@
         <v>128</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1947,16 +1988,16 @@
         <v>121</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="34">
         <v>6</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T10" s="12" t="s">
@@ -1967,13 +2008,13 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1981,16 +2022,16 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="45" t="s">
         <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2003,17 +2044,19 @@
         <v>59</v>
       </c>
       <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="32" t="s">
+      <c r="O11" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="34">
         <v>6</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="R11" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="23" t="s">
         <v>140</v>
       </c>
       <c r="T11" s="12" t="s">
@@ -2024,13 +2067,13 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -2038,16 +2081,16 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="45" t="s">
         <v>204</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -2060,17 +2103,19 @@
       <c r="N12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="32" t="s">
+      <c r="O12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="P12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="34">
         <v>6</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="R12" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T12" s="12" t="s">
@@ -2081,13 +2126,13 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2097,16 +2142,16 @@
         <v>130</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="45" t="s">
         <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -2119,17 +2164,19 @@
       <c r="N13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="32" t="s">
+      <c r="O13" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="34">
         <v>6</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T13" s="12" t="s">
@@ -2140,13 +2187,13 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -2156,10 +2203,10 @@
         <v>125</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -2179,16 +2226,16 @@
         <v>121</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="34">
         <v>6</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T14" s="12" t="s">
@@ -2199,13 +2246,13 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -2213,16 +2260,16 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="45" t="s">
         <v>209</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2236,16 +2283,16 @@
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="34">
         <v>6</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="23" t="s">
         <v>140</v>
       </c>
       <c r="T15" s="12" t="s">
@@ -2256,13 +2303,13 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -2270,16 +2317,16 @@
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="69" t="s">
+      <c r="J16" s="45" t="s">
         <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2292,17 +2339,19 @@
       <c r="N16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="32" t="s">
+      <c r="O16" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="34">
         <v>6</v>
       </c>
-      <c r="R16" s="37" t="s">
+      <c r="R16" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T16" s="12" t="s">
@@ -2313,13 +2362,13 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -2329,10 +2378,10 @@
         <v>128</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -2351,17 +2400,19 @@
       <c r="N17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="32" t="s">
+      <c r="O17" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="34">
         <v>6</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T17" s="12" t="s">
@@ -2372,13 +2423,13 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -2386,16 +2437,16 @@
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="45" t="s">
         <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2409,16 +2460,16 @@
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="34">
         <v>6</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="23" t="s">
         <v>140</v>
       </c>
       <c r="T18" s="12" t="s">
@@ -2429,13 +2480,13 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -2443,16 +2494,16 @@
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="45" t="s">
         <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2465,17 +2516,19 @@
       <c r="N19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="32" t="s">
+      <c r="O19" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="P19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="34">
         <v>6</v>
       </c>
-      <c r="R19" s="37" t="s">
+      <c r="R19" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="S19" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T19" s="12" t="s">
@@ -2486,13 +2539,13 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -2500,16 +2553,16 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="45" t="s">
         <v>195</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -2520,24 +2573,26 @@
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="32" t="s">
+      <c r="O20" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="37"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="10"/>
       <c r="T20" s="12"/>
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -2545,16 +2600,16 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="J21" s="45" t="s">
         <v>184</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -2567,17 +2622,19 @@
       <c r="N21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="32" t="s">
+      <c r="O21" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="P21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="34">
         <v>6</v>
       </c>
-      <c r="R21" s="37" t="s">
+      <c r="R21" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T21" s="12" t="s">
@@ -2588,13 +2645,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="39" t="s">
         <v>124</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -2602,10 +2659,10 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="31">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -2622,17 +2679,19 @@
       <c r="N22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="32" t="s">
+      <c r="O22" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="P22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="34">
         <v>6</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="R22" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="S22" s="24" t="s">
+      <c r="S22" s="23" t="s">
         <v>141</v>
       </c>
       <c r="T22" s="12" t="s">
@@ -4112,6 +4171,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4126,12 +4191,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/Copia de CS_08_08_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Copia de CS_08_08_CO_Escaleta.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="220">
   <si>
     <t>Asignatura</t>
   </si>
@@ -650,9 +650,6 @@
     <t>Actividad que permite reconocer aspectos de la crisis económica de la producción de café y del comienzo de la Guerra de los Mil Días</t>
   </si>
   <si>
-    <t>El rol de la prensa y deperiodistas colombianos durante la segunda mitad del siglo XIX</t>
-  </si>
-  <si>
     <t>Interactivo que presenta los intereses y las actividades de la prensa liberal y conservadora durante la segunda mitad del siglo XIX</t>
   </si>
   <si>
@@ -674,9 +671,6 @@
     <t>Actividad que guía el trabajo colaborativo de investigación sobre el rol de las mujeres en la sociedad colombiana de la segunda mitad del siglo XIX</t>
   </si>
   <si>
-    <t xml:space="preserve">Asignado a Miguel Gil. </t>
-  </si>
-  <si>
     <t>Asignado a Ana Hoyos.</t>
   </si>
   <si>
@@ -689,13 +683,7 @@
     <t>Asignado a Miguel Gil.</t>
   </si>
   <si>
-    <t>Anognado rbanismo Miguel Gil.</t>
-  </si>
-  <si>
-    <t>Asignado omAnomHoyos.</t>
-  </si>
-  <si>
-    <t>Anognado in Miguel Gil.</t>
+    <t>El rol de la prensa y de periodistas colombianos durante la segunda mitad del siglo XIX</t>
   </si>
 </sst>
 </file>
@@ -1023,16 +1011,40 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,30 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1406,9 +1394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,81 +1424,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="49" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="64"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
@@ -1519,11 +1507,11 @@
       </c>
       <c r="O2" s="50"/>
       <c r="P2" s="50"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="65"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="52"/>
     </row>
     <row r="3" spans="1:21" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
@@ -1562,8 +1550,8 @@
         <v>53</v>
       </c>
       <c r="N3" s="22"/>
-      <c r="O3" s="70" t="s">
-        <v>218</v>
+      <c r="O3" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="P3" s="37" t="s">
         <v>19</v>
@@ -1621,8 +1609,8 @@
       <c r="N4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="70" t="s">
-        <v>219</v>
+      <c r="O4" s="47" t="s">
+        <v>217</v>
       </c>
       <c r="P4" s="37" t="s">
         <v>19</v>
@@ -1739,7 +1727,7 @@
         <v>117</v>
       </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="48" t="s">
         <v>216</v>
       </c>
       <c r="P6" s="31" t="s">
@@ -1800,8 +1788,8 @@
       <c r="N7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="71" t="s">
-        <v>219</v>
+      <c r="O7" s="48" t="s">
+        <v>217</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>19</v>
@@ -1864,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P8" s="31" t="s">
         <v>19</v>
@@ -1927,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>19</v>
@@ -2045,7 +2033,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>19</v>
@@ -2104,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>19</v>
@@ -2165,7 +2153,7 @@
         <v>28</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>19</v>
@@ -2261,7 +2249,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
       <c r="G15" s="42" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H15" s="31">
         <v>13</v>
@@ -2270,7 +2258,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2282,7 +2270,9 @@
         <v>55</v>
       </c>
       <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="P15" s="31" t="s">
         <v>19</v>
       </c>
@@ -2318,7 +2308,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
@@ -2327,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2340,7 +2330,7 @@
         <v>36</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P16" s="31" t="s">
         <v>19</v>
@@ -2400,9 +2390,7 @@
       <c r="N17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="9" t="s">
-        <v>221</v>
-      </c>
+      <c r="O17" s="9"/>
       <c r="P17" s="31" t="s">
         <v>19</v>
       </c>
@@ -2438,7 +2426,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
       <c r="G18" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18" s="31">
         <v>16</v>
@@ -2447,7 +2435,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2495,7 +2483,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
       <c r="G19" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H19" s="31">
         <v>17</v>
@@ -2504,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2516,9 +2504,7 @@
       <c r="N19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="9" t="s">
-        <v>222</v>
-      </c>
+      <c r="O19" s="9"/>
       <c r="P19" s="31" t="s">
         <v>19</v>
       </c>
@@ -2573,9 +2559,7 @@
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="9" t="s">
-        <v>223</v>
-      </c>
+      <c r="O20" s="9"/>
       <c r="P20" s="31" t="s">
         <v>19</v>
       </c>
@@ -2623,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>19</v>
@@ -2679,9 +2663,7 @@
       <c r="N22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O22" s="9" t="s">
-        <v>223</v>
-      </c>
+      <c r="O22" s="9"/>
       <c r="P22" s="31" t="s">
         <v>20</v>
       </c>
@@ -4171,12 +4153,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4191,6 +4167,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
